--- a/data/trans_dic/PCS12_SP_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/PCS12_SP_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población en el primer cuartil de la puntuación del componente de salud física (SF12)</t>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>62,38%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>64,68%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>61,19%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,65%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>75,78%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>73,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>72,6%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>79,68%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,89%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>69,91%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>67,68%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>74,94%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>59,6; 65,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>61,45; 67,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>57,77; 64,85</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>63,56; 71,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>73,35; 78,06</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>70,91; 76,12</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>69,67; 75,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,14</t>
+          <t>76,89; 82,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,08</t>
+          <t>68,08; 71,76</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>67,89; 71,67</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>65,25; 69,73</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,09</t>
+          <t>72,62; 77,03</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,74%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,16%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,6%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,96%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,8%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,81%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,4%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,3%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>36,94%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,95%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>31,5; 36,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>34,92; 39,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>32,48; 36,85</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>40,44; 48,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>42,74; 47,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>41,39; 46,13</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,1</t>
+          <t>37,14; 41,71</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,07</t>
+          <t>45,42; 57,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>37,73; 41,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>38,57; 41,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,05</t>
+          <t>35,29; 38,53</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>43,54; 51,04</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,64%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,72%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,63%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,36%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,08%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,61%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,44%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,43%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>37,94%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,57%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,54%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,37%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>28,87; 36,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>25,58; 34,4</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>21,59; 29,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,28</t>
+          <t>38,19; 46,45</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>39,4; 48,76</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,46</t>
+          <t>32,42; 42,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>29,4; 37,76</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>37,01; 43,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>34,94; 41,23</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>30,15; 36,79</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,19</t>
+          <t>26,74; 32,46</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>38,96; 44,15</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,09%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>46,79%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>57,05%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>54,26%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>53,97%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,93%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,21%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,55%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>50,59%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>40,72; 44,43</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>42,01; 45,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>37,28; 40,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>44,61; 49,65</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>55,26; 58,74</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>52,49; 55,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>46,22; 49,67</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>51,86; 59,21</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>48,72; 51,26</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>47,98; 50,45</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>42,41; 44,69</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>49,08; 53,52</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/PCS12_SP_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>67,65%</t>
+          <t>67,9%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>79,68%</t>
+          <t>79,83%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>74,94%</t>
+          <t>74,98%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>63,56; 71,62</t>
+          <t>63,56; 71,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>76,89; 82,02</t>
+          <t>77,05; 82,09</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>72,62; 77,03</t>
+          <t>72,72; 77,11</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>42,96%</t>
+          <t>47,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>48,81%</t>
+          <t>50,3%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>45,95%</t>
+          <t>49,1%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>40,44; 48,25</t>
+          <t>41,0; 63,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>45,42; 57,84</t>
+          <t>43,72; 64,27</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>43,54; 51,04</t>
+          <t>43,34; 58,4</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>42,36%</t>
+          <t>42,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>40,43%</t>
+          <t>40,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>41,37%</t>
+          <t>41,61%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>38,19; 46,45</t>
+          <t>38,09; 46,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,01; 43,54</t>
+          <t>37,38; 43,96</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>38,96; 44,15</t>
+          <t>39,13; 44,26</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>46,79%</t>
+          <t>49,86%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>53,97%</t>
+          <t>54,64%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>50,59%</t>
+          <t>52,32%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>44,61; 49,65</t>
+          <t>45,26; 61,86</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,86; 59,21</t>
+          <t>50,88; 63,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>49,08; 53,52</t>
+          <t>49,15; 58,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/PCS12_SP_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/PCS12_SP_R2-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>59,6; 65,31</t>
+          <t>59,39; 65,29</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>61,45; 67,66</t>
+          <t>61,58; 68,0</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>57,77; 64,85</t>
+          <t>57,72; 64,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>63,56; 71,74</t>
+          <t>63,86; 72,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>73,35; 78,06</t>
+          <t>73,53; 78,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>70,91; 76,12</t>
+          <t>71,03; 76,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>69,67; 75,41</t>
+          <t>69,55; 75,55</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>77,05; 82,09</t>
+          <t>77,28; 82,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>68,08; 71,76</t>
+          <t>68,02; 71,8</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>67,89; 71,67</t>
+          <t>67,75; 71,73</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>65,25; 69,73</t>
+          <t>65,37; 70,13</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>72,72; 77,11</t>
+          <t>72,9; 77,26</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>31,5; 36,05</t>
+          <t>31,56; 35,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>34,92; 39,42</t>
+          <t>35,03; 39,43</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>32,48; 36,85</t>
+          <t>32,58; 36,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>41,0; 63,7</t>
+          <t>40,85; 63,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>42,74; 47,89</t>
+          <t>43,0; 47,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,39; 46,13</t>
+          <t>41,31; 46,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,14; 41,71</t>
+          <t>37,15; 41,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>43,72; 64,27</t>
+          <t>43,96; 64,98</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>37,73; 41,15</t>
+          <t>37,52; 41,03</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>38,57; 41,84</t>
+          <t>38,68; 41,98</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>35,29; 38,53</t>
+          <t>35,5; 38,59</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>43,34; 58,4</t>
+          <t>43,59; 58,74</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>28,87; 36,79</t>
+          <t>28,51; 36,9</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>25,58; 34,4</t>
+          <t>25,5; 34,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,59; 29,15</t>
+          <t>22,1; 29,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>38,09; 46,77</t>
+          <t>38,35; 46,68</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>39,4; 48,76</t>
+          <t>39,13; 48,55</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>32,42; 42,18</t>
+          <t>32,61; 42,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>29,4; 37,76</t>
+          <t>29,53; 37,53</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>37,38; 43,96</t>
+          <t>37,51; 44,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>34,94; 41,23</t>
+          <t>34,99; 41,34</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30,15; 36,79</t>
+          <t>30,31; 36,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>26,74; 32,46</t>
+          <t>26,81; 32,55</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>39,13; 44,26</t>
+          <t>39,05; 44,25</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>40,72; 44,43</t>
+          <t>40,98; 44,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>42,01; 45,68</t>
+          <t>42,22; 45,68</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>37,28; 40,82</t>
+          <t>37,12; 40,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>45,26; 61,86</t>
+          <t>45,38; 61,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>55,26; 58,74</t>
+          <t>55,36; 58,85</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,49; 55,85</t>
+          <t>52,54; 55,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>46,22; 49,67</t>
+          <t>46,03; 49,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>50,88; 63,58</t>
+          <t>50,77; 62,69</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>48,72; 51,26</t>
+          <t>48,6; 51,16</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>47,98; 50,45</t>
+          <t>47,99; 50,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>42,41; 44,69</t>
+          <t>42,27; 44,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>49,15; 58,65</t>
+          <t>48,92; 58,46</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población por debajo de la mediana de la puntuación del componente de salud física (SF12)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>473</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>972</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>918</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>630</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>1153</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>1633</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1498</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1103</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1636</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>643634</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>630409</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>461618</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>346564</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>996571</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>986227</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>722129</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>595169</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>1640204</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>1616637</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>1183748</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>941732</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>612733; 673599</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>600141; 662767</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>435415; 488636</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>325914; 368769</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>966956; 1025812</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>950233; 1019060</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>691749; 751503</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>576138; 613179</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>1596328; 1685048</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1566604; 1658602</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>1143347; 1226659</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>915635; 970290</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>559</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>674</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>667</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>938</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>698</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>705</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>717</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>1553</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>1257</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1379</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>1384</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>2491</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>571326</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>729883</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>718405</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>1093457</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>721393</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>769921</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>783074</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>1122737</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>1292719</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1499803</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>1501479</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>2216194</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>534420; 609492</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>688000; 774469</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>676556; 760400</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>931903; 1441493</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>682656; 759262</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>726209; 809361</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>738587; 827838</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>981273; 1450422</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>1230966; 1346291</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>1439544; 1562283</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>1443068; 1568363</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>1967549; 2651310</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>767</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>179982</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>143018</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>140160</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>273520</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>209984</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>172496</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>183645</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>268271</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>389966</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>315515</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>323805</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>541791</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>157228; 203491</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>122680; 165887</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>120848; 162187</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>247130; 300850</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>186433; 231320</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>149545; 194989</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>162152; 206111</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>246648; 289868</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>359595; 424920</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>284830; 344801</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>293864; 356811</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>508386; 576204</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1389</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1383</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1733</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1869</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>1777</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1515</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>3161</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>3258</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>3160</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2781</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>4894</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>1394942</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1503310</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1320184</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1713541</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1927947</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>1928644</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>1688848</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1986176</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>3322889</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>3431954</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>3009032</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>3699717</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>1342788; 1458215</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>1443841; 1562086</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1253891; 1375707</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1559291; 2097950</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1870650; 1988583</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>1867351; 1989208</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>1625926; 1747467</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>1845792; 2278946</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>3234788; 3405160</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>3346668; 3510402</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>2920983; 3091655</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3459552; 4134313</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>